--- a/Documentation/Asset list.xlsx
+++ b/Documentation/Asset list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\RIT2020SPRING\671\final\Elastic-Rush\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4DBD08-D6B9-45AD-BED7-80F227F2B238}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2E8296-CC2B-4342-BEA7-1D72376E172E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="630" windowWidth="26400" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>Category</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Sound effect</t>
   </si>
   <si>
@@ -79,15 +76,9 @@
     <t>Metallic sound hitting, for character falling to the ground</t>
   </si>
   <si>
-    <t>Steps</t>
-  </si>
-  <si>
     <t>Metallic sound for character running on platforms</t>
   </si>
   <si>
-    <t>4 different versions for characters</t>
-  </si>
-  <si>
     <t>Death</t>
   </si>
   <si>
@@ -154,33 +145,35 @@
     <t>Low pitch machine roaring sound mixed with digital devices sound</t>
   </si>
   <si>
-    <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Crystalline sound, low pitch, reinforces cancelling and quitting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Footsteps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ongoing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -226,12 +219,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -450,10 +442,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -461,285 +453,276 @@
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
     <col min="3" max="3" width="62.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="1" t="s">
-        <v>45</v>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Documentation/Asset list.xlsx
+++ b/Documentation/Asset list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\RIT2020SPRING\671\final\Elastic-Rush\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2E8296-CC2B-4342-BEA7-1D72376E172E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4437D5-5CA8-4857-9672-1BCAC02C8961}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>Category</t>
   </si>
@@ -161,7 +161,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ongoing</t>
+    <t>Added</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alert sound on the top of the screen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ambience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sci-fi engine hovering sound scattering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Future city surroundings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Removed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freeze gun pickup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gravity gun pickup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sonic gun pickup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gun reloading sound, faster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gun reloading sound, slower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon picking up sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low pitch sci-fi digital sounds scattering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engine hovering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warnings</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,10 +502,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -578,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -676,7 +736,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -690,7 +750,7 @@
         <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -719,6 +779,90 @@
       </c>
       <c r="D19" s="2" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Asset list.xlsx
+++ b/Documentation/Asset list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\RIT2020SPRING\671\final\Elastic-Rush\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4437D5-5CA8-4857-9672-1BCAC02C8961}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA29E1A7-3722-4387-8EE7-E9BA70F981F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10125" yWindow="480" windowWidth="15645" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>Category</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Metallic sound hitting, for character falling to the ground</t>
   </si>
   <si>
-    <t>Metallic sound for character running on platforms</t>
-  </si>
-  <si>
     <t>Death</t>
   </si>
   <si>
@@ -127,101 +124,91 @@
     <t>Ambience</t>
   </si>
   <si>
+    <t>Speed up wind sound</t>
+  </si>
+  <si>
+    <t>Wind sound for speeding up</t>
+  </si>
+  <si>
+    <t>Cyberpunk surroundings</t>
+  </si>
+  <si>
+    <t>Low pitch machine roaring sound mixed with digital devices sound</t>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crystalline sound, low pitch, reinforces cancelling and quitting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Added</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alert sound on the top of the screen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ambience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sci-fi engine hovering sound scattering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Future city surroundings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freeze gun pickup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gravity gun pickup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sonic gun pickup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gun reloading sound, faster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gun reloading sound, slower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon picking up sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low pitch sci-fi digital sounds scattering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engine hovering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Dangerous zone</t>
-  </si>
-  <si>
-    <t>Alert sound on the top and the bottom of the screen</t>
-  </si>
-  <si>
-    <t>Speed up wind sound</t>
-  </si>
-  <si>
-    <t>Wind sound for speeding up</t>
-  </si>
-  <si>
-    <t>Cyberpunk surroundings</t>
-  </si>
-  <si>
-    <t>Low pitch machine roaring sound mixed with digital devices sound</t>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crystalline sound, low pitch, reinforces cancelling and quitting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Footsteps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Added</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alert sound on the top of the screen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ambience</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sci-fi engine hovering sound scattering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Future city surroundings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Removed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sound effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Freeze gun pickup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gravity gun pickup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sonic gun pickup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gun reloading sound, faster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gun reloading sound, slower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon picking up sound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Low pitch sci-fi digital sounds scattering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Engine hovering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Warnings</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,10 +489,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -515,7 +502,7 @@
     <col min="3" max="3" width="62.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,10 +513,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -540,10 +530,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -554,10 +544,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -568,10 +558,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -582,10 +572,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -596,10 +586,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -610,10 +600,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -624,158 +614,158 @@
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>41</v>
@@ -783,86 +773,58 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
